--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>2252.660793076521</v>
+        <v>4032.414564323326</v>
       </c>
       <c r="R2">
-        <v>2252.660793076521</v>
+        <v>36291.73107890993</v>
       </c>
       <c r="S2">
-        <v>0.002709514720512387</v>
+        <v>0.004461494464728317</v>
       </c>
       <c r="T2">
-        <v>0.002709514720512387</v>
+        <v>0.004461494464728317</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>4147.429839966535</v>
+        <v>6643.056911897224</v>
       </c>
       <c r="R3">
-        <v>4147.429839966535</v>
+        <v>59787.51220707502</v>
       </c>
       <c r="S3">
-        <v>0.004988554973842406</v>
+        <v>0.007349929221942031</v>
       </c>
       <c r="T3">
-        <v>0.004988554973842406</v>
+        <v>0.007349929221942032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>1574.553741943311</v>
+        <v>2665.113126663076</v>
       </c>
       <c r="R4">
-        <v>1574.553741943311</v>
+        <v>23986.01813996768</v>
       </c>
       <c r="S4">
-        <v>0.001893883249153856</v>
+        <v>0.002948701645828274</v>
       </c>
       <c r="T4">
-        <v>0.001893883249153856</v>
+        <v>0.002948701645828275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H5">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>3573.64846831029</v>
+        <v>5879.605741311096</v>
       </c>
       <c r="R5">
-        <v>3573.64846831029</v>
+        <v>52916.45167179986</v>
       </c>
       <c r="S5">
-        <v>0.004298407092884648</v>
+        <v>0.006505240979369942</v>
       </c>
       <c r="T5">
-        <v>0.004298407092884648</v>
+        <v>0.006505240979369943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>149234.0494385156</v>
+        <v>167149.642782898</v>
       </c>
       <c r="R6">
-        <v>149234.0494385156</v>
+        <v>1504346.785046082</v>
       </c>
       <c r="S6">
-        <v>0.1794996632418397</v>
+        <v>0.184935649388608</v>
       </c>
       <c r="T6">
-        <v>0.1794996632418397</v>
+        <v>0.184935649388608</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>274758.5218700593</v>
+        <v>275364.6908316866</v>
       </c>
       <c r="R7">
-        <v>274758.5218700593</v>
+        <v>2478282.217485179</v>
       </c>
       <c r="S7">
-        <v>0.3304812965543816</v>
+        <v>0.3046656102268477</v>
       </c>
       <c r="T7">
-        <v>0.3304812965543816</v>
+        <v>0.3046656102268477</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>104310.8805777425</v>
+        <v>110472.9436896327</v>
       </c>
       <c r="R8">
-        <v>104310.8805777425</v>
+        <v>994256.4932066945</v>
       </c>
       <c r="S8">
-        <v>0.1254657901907215</v>
+        <v>0.1222281139281244</v>
       </c>
       <c r="T8">
-        <v>0.1254657901907215</v>
+        <v>0.1222281139281244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>236746.7103057877</v>
+        <v>243718.4926518943</v>
       </c>
       <c r="R9">
-        <v>236746.7103057877</v>
+        <v>2193466.433867049</v>
       </c>
       <c r="S9">
-        <v>0.2847604479901928</v>
+        <v>0.2696520133467036</v>
       </c>
       <c r="T9">
-        <v>0.2847604479901928</v>
+        <v>0.2696520133467037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H10">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>3217.76718135098</v>
+        <v>9990.19579822529</v>
       </c>
       <c r="R10">
-        <v>3217.76718135098</v>
+        <v>89911.7621840276</v>
       </c>
       <c r="S10">
-        <v>0.003870350818839847</v>
+        <v>0.01105322940991154</v>
       </c>
       <c r="T10">
-        <v>0.003870350818839847</v>
+        <v>0.01105322940991154</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H11">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>5924.311226535706</v>
+        <v>16457.99016692715</v>
       </c>
       <c r="R11">
-        <v>5924.311226535706</v>
+        <v>148121.9115023444</v>
       </c>
       <c r="S11">
-        <v>0.007125799200008546</v>
+        <v>0.01820924680709764</v>
       </c>
       <c r="T11">
-        <v>0.007125799200008546</v>
+        <v>0.01820924680709765</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H12">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>2249.139049993871</v>
+        <v>6602.744220633584</v>
       </c>
       <c r="R12">
-        <v>2249.139049993871</v>
+        <v>59424.69798570225</v>
       </c>
       <c r="S12">
-        <v>0.002705278745547301</v>
+        <v>0.00730532695050836</v>
       </c>
       <c r="T12">
-        <v>0.002705278745547301</v>
+        <v>0.007305326950508362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H13">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>5104.704975714215</v>
+        <v>14566.56096120519</v>
       </c>
       <c r="R13">
-        <v>5104.704975714215</v>
+        <v>131099.0486508467</v>
       </c>
       <c r="S13">
-        <v>0.006139971591852824</v>
+        <v>0.01611655499747711</v>
       </c>
       <c r="T13">
-        <v>0.006139971591852824</v>
+        <v>0.01611655499747711</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H14">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>7469.921751258635</v>
+        <v>8451.311536473071</v>
       </c>
       <c r="R14">
-        <v>7469.921751258635</v>
+        <v>76061.80382825763</v>
       </c>
       <c r="S14">
-        <v>0.008984869363517799</v>
+        <v>0.009350596035751717</v>
       </c>
       <c r="T14">
-        <v>0.008984869363517799</v>
+        <v>0.009350596035751717</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H15">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>13753.05881320621</v>
+        <v>13922.81042075479</v>
       </c>
       <c r="R15">
-        <v>13753.05881320621</v>
+        <v>125305.2937867931</v>
       </c>
       <c r="S15">
-        <v>0.01654226655916633</v>
+        <v>0.01540430445203566</v>
       </c>
       <c r="T15">
-        <v>0.01654226655916633</v>
+        <v>0.01540430445203566</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H16">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>5221.289100257572</v>
+        <v>5585.661135303718</v>
       </c>
       <c r="R16">
-        <v>5221.289100257572</v>
+        <v>50270.95021773345</v>
       </c>
       <c r="S16">
-        <v>0.006280199717897873</v>
+        <v>0.006180018408198435</v>
       </c>
       <c r="T16">
-        <v>0.006280199717897873</v>
+        <v>0.006180018408198436</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H17">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>11850.37467994691</v>
+        <v>12322.73592876338</v>
       </c>
       <c r="R17">
-        <v>11850.37467994691</v>
+        <v>110904.6233588704</v>
       </c>
       <c r="S17">
-        <v>0.01425370598964063</v>
+        <v>0.01363396973686715</v>
       </c>
       <c r="T17">
-        <v>0.01425370598964063</v>
+        <v>0.01363396973686716</v>
       </c>
     </row>
   </sheetData>
